--- a/outputs/excelFiles/ScoresFromatted.xlsx
+++ b/outputs/excelFiles/ScoresFromatted.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/aphart_uwaterloo_ca/Documents/School/Masters/Classes/SYDE 675/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:40009_{F7222B5C-4F0A-4A3B-9283-557B14562083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46B9A628-1478-4CF5-B33A-D44903C38EF4}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:40009_{F7222B5C-4F0A-4A3B-9283-557B14562083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49944E51-B7F1-467A-AAFE-6941A83C6B62}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="45" windowWidth="21630" windowHeight="11235" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ribeiro" sheetId="1" r:id="rId1"/>
     <sheet name="Nan" sheetId="2" r:id="rId2"/>
     <sheet name="Zero" sheetId="3" r:id="rId3"/>
+    <sheet name="Time" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="23">
   <si>
     <t>1dAVb</t>
   </si>
@@ -97,6 +98,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Train Time [s]</t>
+  </si>
+  <si>
+    <t>Prediction Time [s]</t>
   </si>
 </sst>
 </file>
@@ -435,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -752,6 +759,75 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -805,7 +881,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,6 +954,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2377,7 +2489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19EAE4E-3FD2-40E1-9307-DB18978957C6}">
   <dimension ref="B1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -2940,4 +3052,65 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9FC911-8B05-49A0-B2BD-D067E48B6EAC}">
+  <dimension ref="B1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25"/>
+      <c r="C2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="26">
+        <v>2183.95310529073</v>
+      </c>
+      <c r="E3" s="33">
+        <v>4.0667912960052401</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="34">
+        <v>2.8535241285959798</v>
+      </c>
+      <c r="D4" s="35">
+        <v>3.15553879737854</v>
+      </c>
+      <c r="E4" s="36">
+        <v>9.8945856094360296E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>